--- a/data/upload_soul/Axa Falabella/Axa Falabella.xlsx
+++ b/data/upload_soul/Axa Falabella/Axa Falabella.xlsx
@@ -481,127 +481,127 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Cod Departamento</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cod Fasecolda</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Teléfono 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Aseguradora Actual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Clase de vehiculo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diferencia con la Aseguradora Actual</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Fin vigencia Actual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Inicio vigencia Actual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Nacimiento</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Genero</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Línea</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>N° Temporario 1 TRADICIONAL</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>N° Temporario AUTOSUFICIENTE</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Placa</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Prima Autosuficiente</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Prima con IVA Aseguradora Actual</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Prima sin IVA AUTOSUFICIENTE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Prima sin IVA TRADICIONAL</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Prima Tradicional</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Servicio</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>Ciudades</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cod Departamento</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Cod Fasecolda</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Teléfono 2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Aseguradora Actual</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Clase de vehiculo</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Departamento</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Diferencia con la Aseguradora Actual</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Fin vigencia Actual</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Inicio vigencia Actual</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Nacimiento</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Genero</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Línea</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>N° Temporario 1 TRADICIONAL</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>N° Temporario AUTOSUFICIENTE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Placa</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Prima Autosuficiente</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Prima con IVA Aseguradora Actual</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Prima sin IVA AUTOSUFICIENTE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Prima sin IVA TRADICIONAL</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Prima Tradicional</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Servicio</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -628,22 +628,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARITZA</t>
+          <t>CLAUDIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SIERRA</t>
+          <t>CETINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DEL CRISTO</t>
+          <t>CRISTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ALVIZ</t>
+          <t>ZAMBRANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -653,116 +653,110 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25910581</t>
+          <t>63344798</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3012748469</t>
+          <t>3017557176</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>angiiems1309@gmail.com</t>
+          <t>claudia.cetinaz@gmail.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>15238</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3006148</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3124478119</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MAPFRE</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CAMIONETAPASAJ</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1968-12-20</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>BRONCO SPORT WILDTRAK TP 2000CC T CT</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>FORD</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1606232</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3017380364</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>HDI-LIBERTY</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>CAMIONETAPASAJ</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>BOLIVAR</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>KRM597</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2025-10-12</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2025-10-12</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1957-08-18</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>TRACKER [FL] LT TP 1800CC</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>30500478</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>DFQ758</t>
-        </is>
+      <c r="AB2" t="n">
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -775,30 +769,30 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1060395.99</t>
+          <t>PARTICULAR</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1285671.23</t>
+          <t>DUITAMA</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>PARTICULAR</t>
+          <t>BOYACA</t>
         </is>
       </c>
       <c r="AI2" t="n">
-        <v>164614345</v>
+        <v>165071328</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1404492</v>
+        <v>1531118</v>
       </c>
       <c r="AK2" t="n">
-        <v>1695146</v>
+        <v>1845831</v>
       </c>
       <c r="AL2" t="n">
-        <v>56500000</v>
+        <v>152500000</v>
       </c>
     </row>
   </sheetData>
